--- a/files/multiCriteriaFilterDatas.xlsx
+++ b/files/multiCriteriaFilterDatas.xlsx
@@ -480,8 +480,8 @@
       <c r="I2" t="str">
         <v>일반용역</v>
       </c>
-      <c r="J2" t="str">
-        <v>10,131,000,000</v>
+      <c r="J2">
+        <v>10131000000</v>
       </c>
       <c r="K2" t="str">
         <v>경제협력기획과</v>
